--- a/target/classes/examples/家庭家居.xlsx
+++ b/target/classes/examples/家庭家居.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22215"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_2A3A98E98955A7BE727BBFA25C73F3F318387BE4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37E3302E-CA54-4974-90D4-0C8812F59A16}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,40 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>溶剂使用量（kg）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SCC编码
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>年份</t>
+  </si>
+  <si>
+    <t>区县代码</t>
+  </si>
+  <si>
+    <t>PM10（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2（吨） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3（吨）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区县</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县编码</t>
-  </si>
-  <si>
-    <t>溶剂使用量（kg）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排放量（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ-SCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPA-SCC</t>
+    <t>OC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC（吨）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,17 +105,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,42 +143,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,75 +472,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
         <v>1434000000</v>
       </c>
-      <c r="G2" s="4">
-        <v>2465200000</v>
+      <c r="B2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="2">
+        <v>650109</v>
+      </c>
+      <c r="D2" s="2">
+        <v>343123</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" s="4">
         <v>1490000000</v>
       </c>
-      <c r="G3" s="4">
-        <v>2460000000</v>
+      <c r="B3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="2">
+        <v>652323</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2218.98</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
         <v>1450000000</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2465200000</v>
       </c>
     </row>
   </sheetData>
